--- a/Analysis/分析.xlsx
+++ b/Analysis/分析.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\27785\Desktop\COT-like-debiasing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\27785\Desktop\COT-like-debiasing\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{014045F2-53CE-4290-91E0-7A38623DA3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D445F78-2AF6-40C6-926D-6B03FF4113A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8810" yWindow="0" windowWidth="16900" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="66">
   <si>
     <t>Category</t>
   </si>
@@ -140,12 +140,132 @@
     <t># CoT回答中 ambig 问题和 disamb 问题的正确性</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>Above is pure-CoT version</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t># Pure-CoT 回答中 ambig 问题和 disamb 问题的正确性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t># Bias-type-CoT 回答中 ambig 问题和 disamb 问题的正确性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ambi Num</t>
+  </si>
+  <si>
+    <t>Disam Num</t>
+  </si>
+  <si>
+    <t>Corr Rate for Ambig</t>
+  </si>
+  <si>
+    <t>Corr Rate for Disam</t>
+  </si>
+  <si>
+    <t>Disability_status</t>
+  </si>
+  <si>
+    <t>Sexual_orientation</t>
+  </si>
+  <si>
+    <t>Gender_identity</t>
+  </si>
+  <si>
+    <t>Race_ethnicity</t>
+  </si>
+  <si>
+    <t>Physical_appearance</t>
+  </si>
+  <si>
+    <t>Race_x_gender</t>
+  </si>
+  <si>
+    <t>Race_x_SES</t>
+  </si>
+  <si>
+    <t>left is pure CoT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>also pure CoT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overall</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新验证下这个data</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sample_ratio = 1.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sample_ratio = 0.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample_ratio = 0.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample_ratio = 1.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>new</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Disambi Acc</t>
+  </si>
+  <si>
+    <t>Ambi Acc</t>
+  </si>
+  <si>
+    <t>Total Acc</t>
+  </si>
+  <si>
+    <t>Data Size</t>
+  </si>
+  <si>
+    <t>baseline</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>average</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pure-CoT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>only_Prefix</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +299,23 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -244,12 +381,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -260,6 +397,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -276,6 +417,4695 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>CoT debiasing accuracy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> on Disambiguous QA</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A917-4360-A239-D4B128A1BAB6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A917-4360-A239-D4B128A1BAB6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-A917-4360-A239-D4B128A1BAB6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$28:$R$28</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sample_ratio = 1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sample_ratio = 0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sample_ratio = 0.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$29:$R$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.55671054900000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75774260151410877</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7244701348747592</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A917-4360-A239-D4B128A1BAB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="357151568"/>
+        <c:axId val="357150608"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="357151568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="357150608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="357150608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="357151568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>CoT not for debiasing accuracy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> on both questions</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.2775371828521432E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.88389129483814521"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$133</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Corr Rate for Ambig</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-843E-468E-96C1-64048101B8DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$134:$E$136</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>sample_ratio = 0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sample_ratio = 0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sample_ratio = 1.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$134:$F$136</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.90918437285812204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90952707333790273</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91496272994597549</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-843E-468E-96C1-64048101B8DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$133</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Corr Rate for Disam</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-843E-468E-96C1-64048101B8DE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$134:$E$136</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>sample_ratio = 0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sample_ratio = 0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sample_ratio = 1.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$134:$G$136</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.88519533927347493</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87183002056202874</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87577788415509816</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-843E-468E-96C1-64048101B8DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="120786368"/>
+        <c:axId val="120789248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="120786368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="120789248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="120789248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="120786368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Baseline</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$156</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Disambi Acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$157:$A$164</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$157:$B$164</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>79.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78.33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>79.44714285714285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4513-4016-970B-0BF4B0F2BB51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$156</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ambi Acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$157:$A$164</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$157:$C$164</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>40.19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.265714285714289</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4513-4016-970B-0BF4B0F2BB51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$156</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$157:$A$164</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$157:$D$164</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>59.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59.41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59.86999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4513-4016-970B-0BF4B0F2BB51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="415129344"/>
+        <c:axId val="415128384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="415129344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415128384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="415128384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415129344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Performance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> in </a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$173</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Disambi Acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$174:$H$176</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>pure-CoT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CoT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$174:$I$176</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>79.44714285714285</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-85A9-4D82-B4D4-79856BB694BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$173</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ambi Acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$174:$H$176</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>pure-CoT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CoT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$174:$J$176</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>40.265714285714289</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-85A9-4D82-B4D4-79856BB694BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$173</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$174:$H$176</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>pure-CoT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CoT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$174:$K$176</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>59.86999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-85A9-4D82-B4D4-79856BB694BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1285585151"/>
+        <c:axId val="1285584671"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1285585151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1285584671"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1285584671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1285585151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1120775</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6744771D-4B44-EADF-D369-E7B6653AA170}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>555625</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>860425</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{322A468A-6227-B754-7499-EDA9E15B5363}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>498475</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6385858D-98E6-59C4-27AE-951208A42EBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>898525</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D918103-17C9-F1D6-DE8E-20BB3B4CD781}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -565,19 +5395,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:Y186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21:P22"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B156" sqref="B156:B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.81640625" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
     <col min="6" max="6" width="22.36328125" customWidth="1"/>
     <col min="7" max="7" width="21.453125" customWidth="1"/>
     <col min="15" max="15" width="25.7265625" customWidth="1"/>
@@ -639,7 +5469,7 @@
         <v>0.71396103899999996</v>
       </c>
       <c r="M2" s="3">
-        <f>(IMDIV(K2,D2)-1)</f>
+        <f t="shared" ref="M2:M13" si="0">(IMDIV(K2,D2)-1)</f>
         <v>0.19186991881591009</v>
       </c>
     </row>
@@ -669,7 +5499,7 @@
         <v>0.67083333300000003</v>
       </c>
       <c r="M3" s="3">
-        <f>(IMDIV(K3,D3)-1)</f>
+        <f t="shared" si="0"/>
         <v>0.14184397106382995</v>
       </c>
     </row>
@@ -699,7 +5529,7 @@
         <v>0.61311053999999998</v>
       </c>
       <c r="M4" s="3">
-        <f>(IMDIV(K4,D4)-1)</f>
+        <f t="shared" si="0"/>
         <v>0.21839080395812993</v>
       </c>
     </row>
@@ -729,7 +5559,7 @@
         <v>0.64699074099999998</v>
       </c>
       <c r="M5" s="5">
-        <f>(IMDIV(K5,D5)-1)</f>
+        <f t="shared" si="0"/>
         <v>0.13157894833497008</v>
       </c>
     </row>
@@ -759,7 +5589,7 @@
         <v>0.74592391300000005</v>
       </c>
       <c r="M6" s="4">
-        <f>(IMDIV(K6,D6)-1)</f>
+        <f t="shared" si="0"/>
         <v>0.40913757715140009</v>
       </c>
     </row>
@@ -789,7 +5619,7 @@
         <v>0.67771509200000002</v>
       </c>
       <c r="M7" s="5">
-        <f>(IMDIV(K7,D7)-1)</f>
+        <f t="shared" si="0"/>
         <v>0.11582002874081998</v>
       </c>
     </row>
@@ -819,7 +5649,7 @@
         <v>0.77325581399999999</v>
       </c>
       <c r="M8" s="3">
-        <f>(IMDIV(K8,D8)-1)</f>
+        <f t="shared" si="0"/>
         <v>0.20736742005073006</v>
       </c>
     </row>
@@ -849,7 +5679,7 @@
         <v>0.67817599100000003</v>
       </c>
       <c r="M9" s="3">
-        <f>(IMDIV(K9,D9)-1)</f>
+        <f t="shared" si="0"/>
         <v>0.19084164803449011</v>
       </c>
     </row>
@@ -879,7 +5709,7 @@
         <v>0.64444444400000001</v>
       </c>
       <c r="M10" s="3">
-        <f>(IMDIV(K10,D10)-1)</f>
+        <f t="shared" si="0"/>
         <v>0.23859078392986</v>
       </c>
     </row>
@@ -909,7 +5739,7 @@
         <v>0.75588972399999999</v>
       </c>
       <c r="M11" s="3">
-        <f>(IMDIV(K11,D11)-1)</f>
+        <f t="shared" si="0"/>
         <v>0.23679772514087993</v>
       </c>
     </row>
@@ -939,7 +5769,7 @@
         <v>0.81648745499999997</v>
       </c>
       <c r="M12" s="3">
-        <f>(IMDIV(K12,D12)-1)</f>
+        <f t="shared" si="0"/>
         <v>0.34331569110728011</v>
       </c>
     </row>
@@ -969,7 +5799,7 @@
         <v>0.73980612400000001</v>
       </c>
       <c r="M13" s="3">
-        <f>(IMDIV(K13,D13)-1)</f>
+        <f t="shared" si="0"/>
         <v>0.24017028225138004</v>
       </c>
     </row>
@@ -984,605 +5814,3390 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>1240</v>
+      </c>
+      <c r="C26">
+        <v>3680</v>
+      </c>
+      <c r="D26">
+        <v>0.66304347826086896</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="P28" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>51</v>
+      </c>
+      <c r="R28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="P29" s="12">
+        <v>0.55671054900000005</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>0.75774260151410877</v>
+      </c>
+      <c r="R29" s="11">
+        <v>0.7244701348747592</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F44" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G44" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="N44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O22" s="6" t="s">
+      <c r="O44" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="P22" s="6" t="s">
+      <c r="P44" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="S44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y44" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>4</v>
       </c>
-      <c r="B23">
+      <c r="B45">
         <v>1540</v>
       </c>
-      <c r="C23">
+      <c r="C45">
         <v>1540</v>
       </c>
-      <c r="D23">
+      <c r="D45">
         <v>833</v>
       </c>
-      <c r="E23">
+      <c r="E45">
         <v>402</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F45" s="7">
         <v>0.45909090899999999</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G45" s="7">
         <v>0.73896103899999999</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J45" t="s">
         <v>4</v>
       </c>
-      <c r="K23">
+      <c r="K45">
         <v>1540</v>
       </c>
-      <c r="L23">
+      <c r="L45">
         <v>1540</v>
       </c>
-      <c r="M23">
+      <c r="M45">
         <v>178</v>
       </c>
-      <c r="N23">
+      <c r="N45">
         <v>703</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O45" s="7">
         <v>0.88441558399999998</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P45" s="7">
         <v>0.54350649299999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="S45" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45">
+        <v>148</v>
+      </c>
+      <c r="U45">
+        <v>154</v>
+      </c>
+      <c r="V45">
+        <v>18</v>
+      </c>
+      <c r="W45">
+        <v>45</v>
+      </c>
+      <c r="X45">
+        <v>0.87837837839999999</v>
+      </c>
+      <c r="Y45">
+        <v>0.70779220779999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>5</v>
       </c>
-      <c r="B24">
+      <c r="B46">
         <v>600</v>
       </c>
-      <c r="C24">
+      <c r="C46">
         <v>600</v>
       </c>
-      <c r="D24">
+      <c r="D46">
         <v>281</v>
       </c>
-      <c r="E24">
+      <c r="E46">
         <v>214</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F46" s="7">
         <v>0.53166666699999998</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G46" s="7">
         <v>0.64333333299999995</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J46" t="s">
         <v>5</v>
       </c>
-      <c r="K24">
+      <c r="K46">
         <v>600</v>
       </c>
-      <c r="L24">
+      <c r="L46">
         <v>600</v>
       </c>
-      <c r="M24">
+      <c r="M46">
         <v>56</v>
       </c>
-      <c r="N24">
+      <c r="N46">
         <v>339</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O46" s="7">
         <v>0.90666666699999998</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P46" s="7">
         <v>0.435</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="S46" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46">
+        <v>60</v>
+      </c>
+      <c r="U46">
+        <v>59</v>
+      </c>
+      <c r="V46">
+        <v>7</v>
+      </c>
+      <c r="W46">
+        <v>22</v>
+      </c>
+      <c r="X46">
+        <v>0.88333333329999997</v>
+      </c>
+      <c r="Y46">
+        <v>0.62711864409999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>6</v>
       </c>
-      <c r="B25">
+      <c r="B47">
         <v>778</v>
       </c>
-      <c r="C25">
+      <c r="C47">
         <v>778</v>
       </c>
-      <c r="D25">
+      <c r="D47">
         <v>482</v>
       </c>
-      <c r="E25">
+      <c r="E47">
         <v>291</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F47" s="7">
         <v>0.380462725</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G47" s="7">
         <v>0.62596401000000002</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J47" t="s">
         <v>6</v>
       </c>
-      <c r="K25">
+      <c r="K47">
         <v>778</v>
       </c>
-      <c r="L25">
+      <c r="L47">
         <v>778</v>
       </c>
-      <c r="M25">
+      <c r="M47">
         <v>91</v>
       </c>
-      <c r="N25">
+      <c r="N47">
         <v>511</v>
       </c>
-      <c r="O25" s="7">
+      <c r="O47" s="7">
         <v>0.88303341899999999</v>
       </c>
-      <c r="P25" s="7">
+      <c r="P47" s="7">
         <v>0.34318766099999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="S47" t="s">
+        <v>39</v>
+      </c>
+      <c r="T47">
+        <v>74</v>
+      </c>
+      <c r="U47">
+        <v>76</v>
+      </c>
+      <c r="V47">
+        <v>11</v>
+      </c>
+      <c r="W47">
+        <v>28</v>
+      </c>
+      <c r="X47">
+        <v>0.85135135139999996</v>
+      </c>
+      <c r="Y47">
+        <v>0.63157894739999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>7</v>
       </c>
-      <c r="B26">
+      <c r="B48">
         <v>432</v>
       </c>
-      <c r="C26">
+      <c r="C48">
         <v>432</v>
       </c>
-      <c r="D26">
+      <c r="D48">
         <v>177</v>
       </c>
-      <c r="E26">
+      <c r="E48">
         <v>193</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F48" s="7">
         <v>0.59027777800000003</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G48" s="8">
         <v>0.55324074099999998</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J48" t="s">
         <v>7</v>
       </c>
-      <c r="K26">
+      <c r="K48">
         <v>432</v>
       </c>
-      <c r="L26">
+      <c r="L48">
         <v>432</v>
       </c>
-      <c r="M26">
+      <c r="M48">
         <v>21</v>
       </c>
-      <c r="N26">
+      <c r="N48">
         <v>284</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O48" s="7">
         <v>0.95138888899999996</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P48" s="7">
         <v>0.342592593</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="S48" t="s">
+        <v>40</v>
+      </c>
+      <c r="T48">
+        <v>41</v>
+      </c>
+      <c r="U48">
+        <v>42</v>
+      </c>
+      <c r="V48">
+        <v>4</v>
+      </c>
+      <c r="W48">
+        <v>26</v>
+      </c>
+      <c r="X48">
+        <v>0.90243902440000001</v>
+      </c>
+      <c r="Y48">
+        <v>0.38095238100000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>8</v>
       </c>
-      <c r="B27">
+      <c r="B49">
         <v>1840</v>
       </c>
-      <c r="C27">
+      <c r="C49">
         <v>1840</v>
       </c>
-      <c r="D27">
+      <c r="D49">
         <v>1262</v>
       </c>
-      <c r="E27">
+      <c r="E49">
         <v>470</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F49" s="8">
         <v>0.31413043499999999</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G49" s="7">
         <v>0.744565217</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J49" t="s">
         <v>8</v>
       </c>
-      <c r="K27">
+      <c r="K49">
         <v>1840</v>
       </c>
-      <c r="L27">
+      <c r="L49">
         <v>1840</v>
       </c>
-      <c r="M27">
+      <c r="M49">
         <v>241</v>
       </c>
-      <c r="N27">
+      <c r="N49">
         <v>694</v>
       </c>
-      <c r="O27" s="7">
+      <c r="O49" s="7">
         <v>0.86902173900000002</v>
       </c>
-      <c r="P27" s="7">
+      <c r="P49" s="7">
         <v>0.62282608699999997</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="S49" t="s">
+        <v>8</v>
+      </c>
+      <c r="T49">
+        <v>182</v>
+      </c>
+      <c r="U49">
+        <v>183</v>
+      </c>
+      <c r="V49">
+        <v>48</v>
+      </c>
+      <c r="W49">
+        <v>43</v>
+      </c>
+      <c r="X49">
+        <v>0.73626373629999997</v>
+      </c>
+      <c r="Y49">
+        <v>0.76502732240000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>9</v>
       </c>
-      <c r="B28">
+      <c r="B50">
         <v>2836</v>
       </c>
-      <c r="C28">
+      <c r="C50">
         <v>2836</v>
       </c>
-      <c r="D28">
+      <c r="D50">
         <v>1638</v>
       </c>
-      <c r="E28">
+      <c r="E50">
         <v>589</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F50" s="7">
         <v>0.42242595199999999</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G50" s="7">
         <v>0.79231311699999996</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J50" t="s">
         <v>9</v>
       </c>
-      <c r="K28">
+      <c r="K50">
         <v>2836</v>
       </c>
-      <c r="L28">
+      <c r="L50">
         <v>2836</v>
       </c>
-      <c r="M28">
+      <c r="M50">
         <v>359</v>
       </c>
-      <c r="N28">
+      <c r="N50">
         <v>1469</v>
       </c>
-      <c r="O28" s="7">
+      <c r="O50" s="7">
         <v>0.87341325800000003</v>
       </c>
-      <c r="P28" s="7">
+      <c r="P50" s="7">
         <v>0.48201692499999998</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="S50" t="s">
+        <v>41</v>
+      </c>
+      <c r="T50">
+        <v>271</v>
+      </c>
+      <c r="U50">
+        <v>280</v>
+      </c>
+      <c r="V50">
+        <v>47</v>
+      </c>
+      <c r="W50">
+        <v>91</v>
+      </c>
+      <c r="X50">
+        <v>0.82656826569999997</v>
+      </c>
+      <c r="Y50">
+        <v>0.67500000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>10</v>
       </c>
-      <c r="B29">
+      <c r="B51">
         <v>3438</v>
       </c>
-      <c r="C29">
+      <c r="C51">
         <v>3440</v>
       </c>
-      <c r="D29">
+      <c r="D51">
         <v>1713</v>
       </c>
-      <c r="E29">
+      <c r="E51">
         <v>760</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F51" s="7">
         <v>0.50174520099999997</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G51" s="7">
         <v>0.77906976699999997</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J51" t="s">
         <v>10</v>
       </c>
-      <c r="K29">
+      <c r="K51">
         <v>3440</v>
       </c>
-      <c r="L29">
+      <c r="L51">
         <v>3440</v>
       </c>
-      <c r="M29">
+      <c r="M51">
         <v>201</v>
       </c>
-      <c r="N29">
+      <c r="N51">
         <v>1359</v>
       </c>
-      <c r="O29" s="7">
+      <c r="O51" s="7">
         <v>0.94156976699999995</v>
       </c>
-      <c r="P29" s="7">
+      <c r="P51" s="7">
         <v>0.60494186000000005</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="S51" t="s">
+        <v>42</v>
+      </c>
+      <c r="T51">
+        <v>333</v>
+      </c>
+      <c r="U51">
+        <v>343</v>
+      </c>
+      <c r="V51">
+        <v>39</v>
+      </c>
+      <c r="W51">
+        <v>80</v>
+      </c>
+      <c r="X51">
+        <v>0.88288288290000005</v>
+      </c>
+      <c r="Y51">
+        <v>0.7667638484</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>11</v>
       </c>
-      <c r="B30">
+      <c r="B52">
         <v>3432</v>
       </c>
-      <c r="C30">
+      <c r="C52">
         <v>3432</v>
       </c>
-      <c r="D30">
+      <c r="D52">
         <v>2159</v>
       </c>
-      <c r="E30">
+      <c r="E52">
         <v>796</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F52" s="7">
         <v>0.37092074600000002</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G52" s="7">
         <v>0.76806526799999997</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J52" t="s">
         <v>11</v>
       </c>
-      <c r="K30">
+      <c r="K52">
         <v>3432</v>
       </c>
-      <c r="L30">
+      <c r="L52">
         <v>3432</v>
       </c>
-      <c r="M30">
+      <c r="M52">
         <v>296</v>
       </c>
-      <c r="N30">
+      <c r="N52">
         <v>1913</v>
       </c>
-      <c r="O30" s="7">
+      <c r="O52" s="7">
         <v>0.91375291400000003</v>
       </c>
-      <c r="P30" s="7">
+      <c r="P52" s="7">
         <v>0.44259906799999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="S52" t="s">
+        <v>11</v>
+      </c>
+      <c r="T52">
+        <v>332</v>
+      </c>
+      <c r="U52">
+        <v>340</v>
+      </c>
+      <c r="V52">
+        <v>33</v>
+      </c>
+      <c r="W52">
+        <v>85</v>
+      </c>
+      <c r="X52">
+        <v>0.90060240960000004</v>
+      </c>
+      <c r="Y52">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>12</v>
       </c>
-      <c r="B31">
+      <c r="B53">
         <v>788</v>
       </c>
-      <c r="C31">
+      <c r="C53">
         <v>788</v>
       </c>
-      <c r="D31">
+      <c r="D53">
         <v>421</v>
       </c>
-      <c r="E31">
+      <c r="E53">
         <v>335</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F53" s="7">
         <v>0.46573604099999999</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G53" s="7">
         <v>0.57487309600000003</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J53" t="s">
         <v>12</v>
       </c>
-      <c r="K31">
+      <c r="K53">
         <v>788</v>
       </c>
-      <c r="L31">
+      <c r="L53">
         <v>787</v>
       </c>
-      <c r="M31">
+      <c r="M53">
         <v>45</v>
       </c>
-      <c r="N31">
+      <c r="N53">
         <v>515</v>
       </c>
-      <c r="O31" s="7">
+      <c r="O53" s="7">
         <v>0.94289340099999996</v>
       </c>
-      <c r="P31" s="7">
+      <c r="P53" s="7">
         <v>0.34561626400000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="S53" t="s">
+        <v>43</v>
+      </c>
+      <c r="T53">
+        <v>77</v>
+      </c>
+      <c r="U53">
+        <v>78</v>
+      </c>
+      <c r="V53">
+        <v>6</v>
+      </c>
+      <c r="W53">
+        <v>27</v>
+      </c>
+      <c r="X53">
+        <v>0.92207792209999995</v>
+      </c>
+      <c r="Y53">
+        <v>0.6538461538</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>13</v>
       </c>
-      <c r="B32">
+      <c r="B54">
         <v>7978</v>
       </c>
-      <c r="C32">
+      <c r="C54">
         <v>7980</v>
       </c>
-      <c r="D32">
+      <c r="D54">
         <v>4478</v>
       </c>
-      <c r="E32">
+      <c r="E54">
         <v>1727</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F54" s="7">
         <v>0.438706443</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G54" s="7">
         <v>0.78358395999999997</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J54" t="s">
         <v>13</v>
       </c>
-      <c r="K32">
+      <c r="K54">
         <v>7980</v>
       </c>
-      <c r="L32">
+      <c r="L54">
         <v>7980</v>
       </c>
-      <c r="M32">
+      <c r="M54">
         <v>590</v>
       </c>
-      <c r="N32">
+      <c r="N54">
         <v>3306</v>
       </c>
-      <c r="O32" s="7">
+      <c r="O54" s="7">
         <v>0.92606516299999997</v>
       </c>
-      <c r="P32" s="7">
+      <c r="P54" s="7">
         <v>0.58571428599999997</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="S54" t="s">
+        <v>44</v>
+      </c>
+      <c r="T54">
+        <v>775</v>
+      </c>
+      <c r="U54">
+        <v>794</v>
+      </c>
+      <c r="V54">
+        <v>84</v>
+      </c>
+      <c r="W54">
+        <v>153</v>
+      </c>
+      <c r="X54">
+        <v>0.89161290319999997</v>
+      </c>
+      <c r="Y54">
+        <v>0.80730478589999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>14</v>
       </c>
-      <c r="B33">
+      <c r="B55">
         <v>5578</v>
       </c>
-      <c r="C33">
+      <c r="C55">
         <v>5580</v>
       </c>
-      <c r="D33">
+      <c r="D55">
         <v>3146</v>
       </c>
-      <c r="E33">
+      <c r="E55">
         <v>1230</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F55" s="7">
         <v>0.43599856599999998</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G55" s="7">
         <v>0.77956989200000004</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J55" t="s">
         <v>14</v>
       </c>
-      <c r="K33">
+      <c r="K55">
         <v>5580</v>
       </c>
-      <c r="L33">
+      <c r="L55">
         <v>5580</v>
       </c>
-      <c r="M33">
+      <c r="M55">
         <v>177</v>
       </c>
-      <c r="N33">
+      <c r="N55">
         <v>1871</v>
       </c>
-      <c r="O33" s="7">
+      <c r="O55" s="7">
         <v>0.96827956999999998</v>
       </c>
-      <c r="P33" s="7">
+      <c r="P55" s="7">
         <v>0.66469534100000005</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="S55" t="s">
+        <v>45</v>
+      </c>
+      <c r="T55">
+        <v>552</v>
+      </c>
+      <c r="U55">
+        <v>557</v>
+      </c>
+      <c r="V55">
+        <v>34</v>
+      </c>
+      <c r="W55">
+        <v>104</v>
+      </c>
+      <c r="X55">
+        <v>0.93840579710000005</v>
+      </c>
+      <c r="Y55">
+        <v>0.81328545779999994</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>15</v>
       </c>
-      <c r="B34">
+      <c r="B56">
         <v>29240</v>
       </c>
-      <c r="C34">
+      <c r="C56">
         <v>29246</v>
       </c>
-      <c r="D34">
+      <c r="D56">
         <v>16590</v>
       </c>
-      <c r="E34">
+      <c r="E56">
         <v>7007</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F56" s="7">
         <v>0.43262653899999998</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G56" s="7">
         <v>0.76041168000000003</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J56" t="s">
         <v>15</v>
       </c>
-      <c r="K34">
+      <c r="K56">
         <v>29246</v>
       </c>
-      <c r="L34">
+      <c r="L56">
         <v>29245</v>
       </c>
-      <c r="M34">
+      <c r="M56">
         <v>2255</v>
       </c>
-      <c r="N34">
+      <c r="N56">
         <v>12964</v>
       </c>
-      <c r="O34" s="7">
+      <c r="O56" s="7">
         <v>0.92289543900000004</v>
       </c>
-      <c r="P34" s="7">
+      <c r="P56" s="7">
         <v>0.55671054900000005</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K35" t="s">
+      <c r="R56">
+        <v>10</v>
+      </c>
+      <c r="S56" t="s">
+        <v>15</v>
+      </c>
+      <c r="T56">
+        <f>SUM(T45:T55)</f>
+        <v>2845</v>
+      </c>
+      <c r="U56">
+        <f>SUM(U45:U55)</f>
+        <v>2906</v>
+      </c>
+      <c r="V56">
+        <f>SUM(V45:V55)</f>
+        <v>331</v>
+      </c>
+      <c r="W56">
+        <f>SUM(W45:W55)</f>
+        <v>704</v>
+      </c>
+      <c r="X56">
+        <f>(T56-V56)/T56</f>
+        <v>0.88365553602811953</v>
+      </c>
+      <c r="Y56">
+        <f>(U56-W56)/U56</f>
+        <v>0.75774260151410877</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K57" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G36">
-        <f>MIN(G23:G34)</f>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <f>MIN(G45:G56)</f>
         <v>0.55324074099999998</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="O58" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>30</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J60" t="s">
         <v>31</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y60" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S61" t="s">
+        <v>4</v>
+      </c>
+      <c r="T61">
+        <v>153</v>
+      </c>
+      <c r="U61">
+        <v>155</v>
+      </c>
+      <c r="V61">
+        <v>15</v>
+      </c>
+      <c r="W61">
+        <v>45</v>
+      </c>
+      <c r="X61">
+        <v>0.90196078430000004</v>
+      </c>
+      <c r="Y61">
+        <v>0.70967741939999995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S62" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62">
+        <v>60</v>
+      </c>
+      <c r="U62">
+        <v>60</v>
+      </c>
+      <c r="V62">
+        <v>12</v>
+      </c>
+      <c r="W62">
+        <v>33</v>
+      </c>
+      <c r="X62">
+        <v>0.8</v>
+      </c>
+      <c r="Y62">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S63" t="s">
+        <v>39</v>
+      </c>
+      <c r="T63">
+        <v>77</v>
+      </c>
+      <c r="U63">
+        <v>75</v>
+      </c>
+      <c r="V63">
+        <v>10</v>
+      </c>
+      <c r="W63">
+        <v>33</v>
+      </c>
+      <c r="X63">
+        <v>0.87012987009999998</v>
+      </c>
+      <c r="Y63">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S64" t="s">
+        <v>40</v>
+      </c>
+      <c r="T64">
+        <v>37</v>
+      </c>
+      <c r="U64">
+        <v>47</v>
+      </c>
+      <c r="V64">
+        <v>4</v>
+      </c>
+      <c r="W64">
+        <v>23</v>
+      </c>
+      <c r="X64">
+        <v>0.89189189189999996</v>
+      </c>
+      <c r="Y64">
+        <v>0.51063829790000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S65" t="s">
+        <v>8</v>
+      </c>
+      <c r="T65">
+        <v>187</v>
+      </c>
+      <c r="U65">
+        <v>181</v>
+      </c>
+      <c r="V65">
+        <v>36</v>
+      </c>
+      <c r="W65">
+        <v>49</v>
+      </c>
+      <c r="X65">
+        <v>0.80748663099999995</v>
+      </c>
+      <c r="Y65">
+        <v>0.729281768</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S66" t="s">
+        <v>41</v>
+      </c>
+      <c r="T66">
+        <v>279</v>
+      </c>
+      <c r="U66">
+        <v>285</v>
+      </c>
+      <c r="V66">
+        <v>41</v>
+      </c>
+      <c r="W66">
+        <v>78</v>
+      </c>
+      <c r="X66">
+        <v>0.85304659500000002</v>
+      </c>
+      <c r="Y66">
+        <v>0.72631578949999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="J67" t="s">
+        <v>4</v>
+      </c>
+      <c r="K67">
+        <v>154</v>
+      </c>
+      <c r="L67">
+        <v>154</v>
+      </c>
+      <c r="M67">
+        <v>23</v>
+      </c>
+      <c r="N67">
+        <v>79</v>
+      </c>
+      <c r="O67">
+        <v>0.85064935060000002</v>
+      </c>
+      <c r="P67">
+        <v>0.48701298700000001</v>
+      </c>
+      <c r="S67" t="s">
+        <v>42</v>
+      </c>
+      <c r="T67">
+        <v>341</v>
+      </c>
+      <c r="U67">
+        <v>347</v>
+      </c>
+      <c r="V67">
+        <v>49</v>
+      </c>
+      <c r="W67">
+        <v>76</v>
+      </c>
+      <c r="X67">
+        <v>0.85630498529999999</v>
+      </c>
+      <c r="Y67">
+        <v>0.78097982710000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="J68" t="s">
+        <v>5</v>
+      </c>
+      <c r="K68">
+        <v>60</v>
+      </c>
+      <c r="L68">
+        <v>60</v>
+      </c>
+      <c r="M68">
+        <v>11</v>
+      </c>
+      <c r="N68">
+        <v>32</v>
+      </c>
+      <c r="O68">
+        <v>0.81666666669999999</v>
+      </c>
+      <c r="P68">
+        <v>0.46666666670000001</v>
+      </c>
+      <c r="S68" t="s">
+        <v>11</v>
+      </c>
+      <c r="T68">
+        <v>339</v>
+      </c>
+      <c r="U68">
+        <v>345</v>
+      </c>
+      <c r="V68">
+        <v>34</v>
+      </c>
+      <c r="W68">
+        <v>61</v>
+      </c>
+      <c r="X68">
+        <v>0.89970501469999997</v>
+      </c>
+      <c r="Y68">
+        <v>0.82318840579999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="J69" t="s">
+        <v>39</v>
+      </c>
+      <c r="K69">
+        <v>76</v>
+      </c>
+      <c r="L69">
+        <v>76</v>
+      </c>
+      <c r="M69">
+        <v>20</v>
+      </c>
+      <c r="N69">
+        <v>37</v>
+      </c>
+      <c r="O69">
+        <v>0.73684210530000005</v>
+      </c>
+      <c r="P69">
+        <v>0.51315789469999995</v>
+      </c>
+      <c r="S69" t="s">
+        <v>43</v>
+      </c>
+      <c r="T69">
+        <v>54</v>
+      </c>
+      <c r="U69">
+        <v>62</v>
+      </c>
+      <c r="V69">
+        <v>6</v>
+      </c>
+      <c r="W69">
+        <v>31</v>
+      </c>
+      <c r="X69">
+        <v>0.88888888889999995</v>
+      </c>
+      <c r="Y69">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="J70" t="s">
+        <v>40</v>
+      </c>
+      <c r="K70">
+        <v>42</v>
+      </c>
+      <c r="L70">
+        <v>42</v>
+      </c>
+      <c r="M70">
+        <v>10</v>
+      </c>
+      <c r="N70">
+        <v>28</v>
+      </c>
+      <c r="O70">
+        <v>0.7619047619</v>
+      </c>
+      <c r="P70">
+        <v>0.33333333329999998</v>
+      </c>
+      <c r="S70" t="s">
+        <v>15</v>
+      </c>
+      <c r="T70">
+        <f>SUM(T59:T69)</f>
+        <v>1527</v>
+      </c>
+      <c r="U70">
+        <f>SUM(U59:U69)</f>
+        <v>1557</v>
+      </c>
+      <c r="V70">
+        <f>SUM(V59:V69)</f>
+        <v>207</v>
+      </c>
+      <c r="W70">
+        <f>SUM(W59:W69)</f>
+        <v>429</v>
+      </c>
+      <c r="X70">
+        <f>(T70-V70)/T70</f>
+        <v>0.86444007858546168</v>
+      </c>
+      <c r="Y70">
+        <f>(U70-W70)/U70</f>
+        <v>0.7244701348747592</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71">
+        <v>1840</v>
+      </c>
+      <c r="C71">
+        <v>1840</v>
+      </c>
+      <c r="D71">
+        <v>916</v>
+      </c>
+      <c r="E71">
+        <v>324</v>
+      </c>
+      <c r="F71">
+        <v>0.50217391304347803</v>
+      </c>
+      <c r="G71">
+        <v>0.82391304347826</v>
+      </c>
+      <c r="J71" t="s">
+        <v>8</v>
+      </c>
+      <c r="K71">
+        <v>184</v>
+      </c>
+      <c r="L71">
+        <v>184</v>
+      </c>
+      <c r="M71">
+        <v>51</v>
+      </c>
+      <c r="N71">
+        <v>57</v>
+      </c>
+      <c r="O71">
+        <v>0.72282608699999995</v>
+      </c>
+      <c r="P71">
+        <v>0.69021739130000004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="J72" t="s">
+        <v>41</v>
+      </c>
+      <c r="K72">
+        <v>282</v>
+      </c>
+      <c r="L72">
+        <v>282</v>
+      </c>
+      <c r="M72">
+        <v>58</v>
+      </c>
+      <c r="N72">
+        <v>144</v>
+      </c>
+      <c r="O72">
+        <v>0.79432624110000005</v>
+      </c>
+      <c r="P72">
+        <v>0.48936170210000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="J73" t="s">
+        <v>42</v>
+      </c>
+      <c r="K73">
+        <v>344</v>
+      </c>
+      <c r="L73">
+        <v>344</v>
+      </c>
+      <c r="M73">
+        <v>39</v>
+      </c>
+      <c r="N73">
+        <v>136</v>
+      </c>
+      <c r="O73">
+        <v>0.88662790700000005</v>
+      </c>
+      <c r="P73">
+        <v>0.60465116279999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+      <c r="J74" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74">
+        <v>342</v>
+      </c>
+      <c r="L74">
+        <v>342</v>
+      </c>
+      <c r="M74">
+        <v>43</v>
+      </c>
+      <c r="N74">
+        <v>153</v>
+      </c>
+      <c r="O74">
+        <v>0.8742690058</v>
+      </c>
+      <c r="P74">
+        <v>0.55263157890000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" t="s">
+        <v>43</v>
+      </c>
+      <c r="K75">
+        <v>78</v>
+      </c>
+      <c r="L75">
+        <v>78</v>
+      </c>
+      <c r="M75">
+        <v>11</v>
+      </c>
+      <c r="N75">
+        <v>49</v>
+      </c>
+      <c r="O75">
+        <v>0.85897435899999997</v>
+      </c>
+      <c r="P75">
+        <v>0.37179487179999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>13</v>
+      </c>
+      <c r="J76" t="s">
+        <v>44</v>
+      </c>
+      <c r="K76">
+        <v>798</v>
+      </c>
+      <c r="L76">
+        <v>798</v>
+      </c>
+      <c r="M76">
+        <v>119</v>
+      </c>
+      <c r="N76">
+        <v>250</v>
+      </c>
+      <c r="O76">
+        <v>0.85087719299999998</v>
+      </c>
+      <c r="P76">
+        <v>0.68671679200000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="J77" t="s">
+        <v>45</v>
+      </c>
+      <c r="K77">
+        <v>558</v>
+      </c>
+      <c r="L77">
+        <v>558</v>
+      </c>
+      <c r="M77">
+        <v>52</v>
+      </c>
+      <c r="N77">
+        <v>223</v>
+      </c>
+      <c r="O77">
+        <v>0.90681003579999997</v>
+      </c>
+      <c r="P77">
+        <v>0.60035842299999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+      <c r="J78" t="s">
+        <v>15</v>
+      </c>
+      <c r="K78">
+        <f>SUM(K67:K77)</f>
+        <v>2918</v>
+      </c>
+      <c r="L78">
+        <f>SUM(L67:L77)</f>
+        <v>2918</v>
+      </c>
+      <c r="M78">
+        <f>SUM(M67:M77)</f>
+        <v>437</v>
+      </c>
+      <c r="N78">
+        <f>SUM(N67:N77)</f>
+        <v>1188</v>
+      </c>
+      <c r="O78">
+        <v>0.85023989032871805</v>
+      </c>
+      <c r="P78">
+        <v>0.59287183002899202</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>33</v>
+      </c>
+      <c r="J82" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S86" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T86" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87">
+        <v>154</v>
+      </c>
+      <c r="C87">
+        <v>154</v>
+      </c>
+      <c r="D87">
+        <v>17</v>
+      </c>
+      <c r="E87">
+        <v>15</v>
+      </c>
+      <c r="F87">
+        <v>0.88961038960000005</v>
+      </c>
+      <c r="G87">
+        <v>0.90259740259999999</v>
+      </c>
+      <c r="H87">
+        <f>SUM(F87:G87)/2</f>
+        <v>0.89610389610000007</v>
+      </c>
+      <c r="I87">
+        <f>SUM(G87:H87)/2</f>
+        <v>0.89935064935000009</v>
+      </c>
+      <c r="N87" t="s">
+        <v>4</v>
+      </c>
+      <c r="O87">
+        <v>151</v>
+      </c>
+      <c r="P87">
+        <v>154</v>
+      </c>
+      <c r="Q87">
+        <v>15</v>
+      </c>
+      <c r="R87">
+        <v>25</v>
+      </c>
+      <c r="S87">
+        <v>0.90066225170000003</v>
+      </c>
+      <c r="T87">
+        <v>0.83766233769999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88">
+        <v>60</v>
+      </c>
+      <c r="C88">
+        <v>60</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+      <c r="E88">
+        <v>12</v>
+      </c>
+      <c r="F88">
+        <v>0.93333333330000001</v>
+      </c>
+      <c r="G88">
+        <v>0.8</v>
+      </c>
+      <c r="H88">
+        <f t="shared" ref="H88:H97" si="1">SUM(F88:G88)/2</f>
+        <v>0.86666666665000003</v>
+      </c>
+      <c r="I88">
+        <f t="shared" ref="I88:I97" si="2">SUM(G88:H88)/2</f>
+        <v>0.83333333332500004</v>
+      </c>
+      <c r="N88" t="s">
+        <v>5</v>
+      </c>
+      <c r="O88">
+        <v>60</v>
+      </c>
+      <c r="P88">
+        <v>60</v>
+      </c>
+      <c r="Q88">
+        <v>3</v>
+      </c>
+      <c r="R88">
+        <v>19</v>
+      </c>
+      <c r="S88">
+        <v>0.95</v>
+      </c>
+      <c r="T88">
+        <v>0.68333333330000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89">
+        <v>76</v>
+      </c>
+      <c r="C89">
+        <v>76</v>
+      </c>
+      <c r="D89">
+        <v>6</v>
+      </c>
+      <c r="E89">
+        <v>10</v>
+      </c>
+      <c r="F89">
+        <v>0.92105263159999995</v>
+      </c>
+      <c r="G89">
+        <v>0.86842105260000002</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="1"/>
+        <v>0.89473684209999993</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="2"/>
+        <v>0.88157894734999998</v>
+      </c>
+      <c r="N89" t="s">
+        <v>39</v>
+      </c>
+      <c r="O89">
+        <v>76</v>
+      </c>
+      <c r="P89">
+        <v>76</v>
+      </c>
+      <c r="Q89">
+        <v>12</v>
+      </c>
+      <c r="R89">
+        <v>12</v>
+      </c>
+      <c r="S89">
+        <v>0.84210526320000001</v>
+      </c>
+      <c r="T89">
+        <v>0.84210526320000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>40</v>
+      </c>
+      <c r="B90">
+        <v>42</v>
+      </c>
+      <c r="C90">
+        <v>42</v>
+      </c>
+      <c r="D90">
+        <v>7</v>
+      </c>
+      <c r="E90">
+        <v>10</v>
+      </c>
+      <c r="F90">
+        <v>0.83333333330000003</v>
+      </c>
+      <c r="G90">
+        <v>0.7619047619</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="1"/>
+        <v>0.79761904760000002</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="2"/>
+        <v>0.77976190474999996</v>
+      </c>
+      <c r="N90" t="s">
+        <v>40</v>
+      </c>
+      <c r="O90">
+        <v>42</v>
+      </c>
+      <c r="P90">
+        <v>42</v>
+      </c>
+      <c r="Q90">
+        <v>2</v>
+      </c>
+      <c r="R90">
+        <v>17</v>
+      </c>
+      <c r="S90">
+        <v>0.95238095239999998</v>
+      </c>
+      <c r="T90">
+        <v>0.59523809520000004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91">
+        <v>184</v>
+      </c>
+      <c r="C91">
+        <v>184</v>
+      </c>
+      <c r="D91">
+        <v>34</v>
+      </c>
+      <c r="E91">
+        <v>21</v>
+      </c>
+      <c r="F91">
+        <v>0.81521739130000004</v>
+      </c>
+      <c r="G91">
+        <v>0.88586956520000004</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="1"/>
+        <v>0.8505434782500001</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="2"/>
+        <v>0.86820652172500012</v>
+      </c>
+      <c r="N91" t="s">
+        <v>8</v>
+      </c>
+      <c r="O91">
+        <v>181</v>
+      </c>
+      <c r="P91">
+        <v>184</v>
+      </c>
+      <c r="Q91">
+        <v>40</v>
+      </c>
+      <c r="R91">
+        <v>17</v>
+      </c>
+      <c r="S91">
+        <v>0.77900552489999997</v>
+      </c>
+      <c r="T91">
+        <v>0.90760869570000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>41</v>
+      </c>
+      <c r="B92">
+        <v>282</v>
+      </c>
+      <c r="C92">
+        <v>282</v>
+      </c>
+      <c r="D92">
+        <v>30</v>
+      </c>
+      <c r="E92">
+        <v>45</v>
+      </c>
+      <c r="F92">
+        <v>0.89361702129999998</v>
+      </c>
+      <c r="G92">
+        <v>0.84042553190000002</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="1"/>
+        <v>0.86702127660000006</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="2"/>
+        <v>0.85372340425000004</v>
+      </c>
+      <c r="K92" t="s">
+        <v>46</v>
+      </c>
+      <c r="N92" t="s">
+        <v>41</v>
+      </c>
+      <c r="O92">
+        <v>270</v>
+      </c>
+      <c r="P92">
+        <v>282</v>
+      </c>
+      <c r="Q92">
+        <v>23</v>
+      </c>
+      <c r="R92">
+        <v>47</v>
+      </c>
+      <c r="S92">
+        <v>0.91481481480000004</v>
+      </c>
+      <c r="T92">
+        <v>0.83333333330000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B93">
+        <v>344</v>
+      </c>
+      <c r="C93">
+        <v>344</v>
+      </c>
+      <c r="D93">
+        <v>37</v>
+      </c>
+      <c r="E93">
+        <v>45</v>
+      </c>
+      <c r="F93">
+        <v>0.89244186049999996</v>
+      </c>
+      <c r="G93">
+        <v>0.86918604649999998</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="1"/>
+        <v>0.88081395349999991</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="2"/>
+        <v>0.875</v>
+      </c>
+      <c r="N93" t="s">
+        <v>42</v>
+      </c>
+      <c r="O93">
+        <v>340</v>
+      </c>
+      <c r="P93">
+        <v>344</v>
+      </c>
+      <c r="Q93">
+        <v>35</v>
+      </c>
+      <c r="R93">
+        <v>36</v>
+      </c>
+      <c r="S93">
+        <v>0.89705882349999999</v>
+      </c>
+      <c r="T93">
+        <v>0.89534883720000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94">
+        <v>342</v>
+      </c>
+      <c r="C94">
+        <v>342</v>
+      </c>
+      <c r="D94">
+        <v>27</v>
+      </c>
+      <c r="E94">
+        <v>36</v>
+      </c>
+      <c r="F94">
+        <v>0.92105263159999995</v>
+      </c>
+      <c r="G94">
+        <v>0.89473684210000004</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="1"/>
+        <v>0.90789473684999999</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="2"/>
+        <v>0.90131578947500002</v>
+      </c>
+      <c r="N94" t="s">
+        <v>11</v>
+      </c>
+      <c r="O94">
+        <v>339</v>
+      </c>
+      <c r="P94">
+        <v>342</v>
+      </c>
+      <c r="Q94">
+        <v>19</v>
+      </c>
+      <c r="R94">
+        <v>34</v>
+      </c>
+      <c r="S94">
+        <v>0.94395280240000001</v>
+      </c>
+      <c r="T94">
+        <v>0.90058479530000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>43</v>
+      </c>
+      <c r="B95">
+        <v>78</v>
+      </c>
+      <c r="C95">
+        <v>78</v>
+      </c>
+      <c r="D95">
+        <v>7</v>
+      </c>
+      <c r="E95">
+        <v>29</v>
+      </c>
+      <c r="F95">
+        <v>0.91025641030000004</v>
+      </c>
+      <c r="G95">
+        <v>0.62820512819999996</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="1"/>
+        <v>0.76923076925</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="2"/>
+        <v>0.69871794872499993</v>
+      </c>
+      <c r="N95" t="s">
+        <v>43</v>
+      </c>
+      <c r="O95">
+        <v>77</v>
+      </c>
+      <c r="P95">
+        <v>78</v>
+      </c>
+      <c r="Q95">
+        <v>3</v>
+      </c>
+      <c r="R95">
+        <v>28</v>
+      </c>
+      <c r="S95">
+        <v>0.96103896099999997</v>
+      </c>
+      <c r="T95">
+        <v>0.64102564100000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>44</v>
+      </c>
+      <c r="B96">
+        <v>798</v>
+      </c>
+      <c r="C96">
+        <v>798</v>
+      </c>
+      <c r="D96">
+        <v>59</v>
+      </c>
+      <c r="E96">
+        <v>72</v>
+      </c>
+      <c r="F96">
+        <v>0.92606516299999997</v>
+      </c>
+      <c r="G96">
+        <v>0.90977443609999997</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="1"/>
+        <v>0.91791979954999992</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="2"/>
+        <v>0.91384711782499994</v>
+      </c>
+      <c r="N96" t="s">
+        <v>44</v>
+      </c>
+      <c r="O96">
+        <v>791</v>
+      </c>
+      <c r="P96">
+        <v>797</v>
+      </c>
+      <c r="Q96">
+        <v>55</v>
+      </c>
+      <c r="R96">
+        <v>109</v>
+      </c>
+      <c r="S96">
+        <v>0.93046776229999995</v>
+      </c>
+      <c r="T96">
+        <v>0.86323713930000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>45</v>
+      </c>
+      <c r="B97">
+        <v>558</v>
+      </c>
+      <c r="C97">
+        <v>558</v>
+      </c>
+      <c r="D97">
+        <v>37</v>
+      </c>
+      <c r="E97">
+        <v>40</v>
+      </c>
+      <c r="F97">
+        <v>0.93369175630000001</v>
+      </c>
+      <c r="G97">
+        <v>0.92831541220000002</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="1"/>
+        <v>0.93100358424999996</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="2"/>
+        <v>0.92965949822499994</v>
+      </c>
+      <c r="N97" t="s">
+        <v>45</v>
+      </c>
+      <c r="O97">
+        <v>557</v>
+      </c>
+      <c r="P97">
+        <v>558</v>
+      </c>
+      <c r="Q97">
+        <v>23</v>
+      </c>
+      <c r="R97">
+        <v>29</v>
+      </c>
+      <c r="S97">
+        <v>0.95870736089999997</v>
+      </c>
+      <c r="T97">
+        <v>0.9480286738</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>48</v>
+      </c>
+      <c r="B98">
+        <f>SUM(B87:B97)</f>
+        <v>2918</v>
+      </c>
+      <c r="C98">
+        <f>SUM(C87:C97)</f>
+        <v>2918</v>
+      </c>
+      <c r="D98">
+        <f>SUM(D87:D97)</f>
+        <v>265</v>
+      </c>
+      <c r="E98">
+        <f>SUM(E87:E97)</f>
+        <v>335</v>
+      </c>
+      <c r="F98">
+        <f>(B98-D98)/B98</f>
+        <v>0.90918437285812204</v>
+      </c>
+      <c r="G98">
+        <f>(C98-E98)/C98</f>
+        <v>0.88519533927347493</v>
+      </c>
+      <c r="N98" t="s">
+        <v>48</v>
+      </c>
+      <c r="O98">
+        <f>SUM(O87:O97)</f>
+        <v>2884</v>
+      </c>
+      <c r="P98">
+        <f>SUM(P87:P97)</f>
+        <v>2917</v>
+      </c>
+      <c r="Q98">
+        <f>SUM(Q87:Q97)</f>
+        <v>230</v>
+      </c>
+      <c r="R98">
+        <f>SUM(R87:R97)</f>
+        <v>373</v>
+      </c>
+      <c r="S98">
+        <f>(O98-Q98)/O98</f>
+        <v>0.92024965325936203</v>
+      </c>
+      <c r="T98">
+        <f>(P98-R98)/P98</f>
+        <v>0.8721288995543367</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102">
+        <v>154</v>
+      </c>
+      <c r="C102">
+        <v>154</v>
+      </c>
+      <c r="D102">
+        <v>18</v>
+      </c>
+      <c r="E102">
+        <v>25</v>
+      </c>
+      <c r="F102">
+        <v>0.88311688310000003</v>
+      </c>
+      <c r="G102">
+        <v>0.83766233769999998</v>
+      </c>
+      <c r="H102">
+        <f>SUM(F102:G102)/2</f>
+        <v>0.86038961039999995</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103">
+        <v>60</v>
+      </c>
+      <c r="C103">
+        <v>60</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103">
+        <v>19</v>
+      </c>
+      <c r="F103">
+        <v>0.95</v>
+      </c>
+      <c r="G103">
+        <v>0.68333333330000001</v>
+      </c>
+      <c r="H103">
+        <f t="shared" ref="H103:H112" si="3">SUM(F103:G103)/2</f>
+        <v>0.81666666664999998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>39</v>
+      </c>
+      <c r="B104">
+        <v>76</v>
+      </c>
+      <c r="C104">
+        <v>76</v>
+      </c>
+      <c r="D104">
+        <v>12</v>
+      </c>
+      <c r="E104">
+        <v>12</v>
+      </c>
+      <c r="F104">
+        <v>0.84210526320000001</v>
+      </c>
+      <c r="G104">
+        <v>0.84210526320000001</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="3"/>
+        <v>0.84210526320000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>40</v>
+      </c>
+      <c r="B105">
+        <v>42</v>
+      </c>
+      <c r="C105">
+        <v>42</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105">
+        <v>17</v>
+      </c>
+      <c r="F105">
+        <v>0.95238095239999998</v>
+      </c>
+      <c r="G105">
+        <v>0.59523809520000004</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="3"/>
+        <v>0.77380952380000001</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106">
+        <v>184</v>
+      </c>
+      <c r="C106">
+        <v>184</v>
+      </c>
+      <c r="D106">
+        <v>43</v>
+      </c>
+      <c r="E106">
+        <v>17</v>
+      </c>
+      <c r="F106">
+        <v>0.76630434780000001</v>
+      </c>
+      <c r="G106">
+        <v>0.90760869570000002</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="3"/>
+        <v>0.83695652175000002</v>
+      </c>
+      <c r="K106" t="s">
+        <v>47</v>
+      </c>
+      <c r="N106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>41</v>
+      </c>
+      <c r="B107">
+        <v>282</v>
+      </c>
+      <c r="C107">
+        <v>282</v>
+      </c>
+      <c r="D107">
+        <v>35</v>
+      </c>
+      <c r="E107">
+        <v>47</v>
+      </c>
+      <c r="F107">
+        <v>0.87588652479999995</v>
+      </c>
+      <c r="G107">
+        <v>0.83333333330000003</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="3"/>
+        <v>0.85460992904999999</v>
+      </c>
+      <c r="N107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>42</v>
+      </c>
+      <c r="B108">
+        <v>344</v>
+      </c>
+      <c r="C108">
+        <v>344</v>
+      </c>
+      <c r="D108">
+        <v>39</v>
+      </c>
+      <c r="E108">
+        <v>36</v>
+      </c>
+      <c r="F108">
+        <v>0.88662790700000005</v>
+      </c>
+      <c r="G108">
+        <v>0.89534883720000003</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="3"/>
+        <v>0.89098837210000004</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109">
+        <v>342</v>
+      </c>
+      <c r="C109">
+        <v>342</v>
+      </c>
+      <c r="D109">
+        <v>22</v>
+      </c>
+      <c r="E109">
+        <v>34</v>
+      </c>
+      <c r="F109">
+        <v>0.9356725146</v>
+      </c>
+      <c r="G109">
+        <v>0.90058479530000002</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="3"/>
+        <v>0.91812865495000007</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>43</v>
+      </c>
+      <c r="B110">
+        <v>78</v>
+      </c>
+      <c r="C110">
+        <v>78</v>
+      </c>
+      <c r="D110">
+        <v>4</v>
+      </c>
+      <c r="E110">
+        <v>28</v>
+      </c>
+      <c r="F110">
+        <v>0.94871794870000004</v>
+      </c>
+      <c r="G110">
+        <v>0.64102564100000003</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="3"/>
+        <v>0.79487179485000004</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>44</v>
+      </c>
+      <c r="B111">
+        <v>798</v>
+      </c>
+      <c r="C111">
+        <v>798</v>
+      </c>
+      <c r="D111">
+        <v>62</v>
+      </c>
+      <c r="E111">
+        <v>110</v>
+      </c>
+      <c r="F111">
+        <v>0.92230576440000001</v>
+      </c>
+      <c r="G111">
+        <v>0.86215538849999995</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="3"/>
+        <v>0.89223057645000003</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>45</v>
+      </c>
+      <c r="B112">
+        <v>558</v>
+      </c>
+      <c r="C112">
+        <v>558</v>
+      </c>
+      <c r="D112">
+        <v>24</v>
+      </c>
+      <c r="E112">
+        <v>29</v>
+      </c>
+      <c r="F112">
+        <v>0.95698924730000001</v>
+      </c>
+      <c r="G112">
+        <v>0.9480286738</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="3"/>
+        <v>0.95250896055000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>48</v>
+      </c>
+      <c r="B113">
+        <f>SUM(B102:B112)</f>
+        <v>2918</v>
+      </c>
+      <c r="C113">
+        <f>SUM(C102:C112)</f>
+        <v>2918</v>
+      </c>
+      <c r="D113">
+        <f>SUM(D102:D112)</f>
+        <v>264</v>
+      </c>
+      <c r="E113">
+        <f>SUM(E102:E112)</f>
+        <v>374</v>
+      </c>
+      <c r="F113">
+        <f>(B113-D113)/B113</f>
+        <v>0.90952707333790273</v>
+      </c>
+      <c r="G113">
+        <f>(C113-E113)/C113</f>
+        <v>0.87183002056202874</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117">
+        <v>1540</v>
+      </c>
+      <c r="C117">
+        <v>1540</v>
+      </c>
+      <c r="D117">
+        <v>186</v>
+      </c>
+      <c r="E117">
+        <v>160</v>
+      </c>
+      <c r="F117">
+        <v>0.87922077919999997</v>
+      </c>
+      <c r="G117">
+        <v>0.89610389609999996</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118">
+        <v>600</v>
+      </c>
+      <c r="C118">
+        <v>600</v>
+      </c>
+      <c r="D118">
+        <v>74</v>
+      </c>
+      <c r="E118">
+        <v>157</v>
+      </c>
+      <c r="F118">
+        <v>0.87666666670000004</v>
+      </c>
+      <c r="G118">
+        <v>0.73833333329999995</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>39</v>
+      </c>
+      <c r="B119">
+        <v>778</v>
+      </c>
+      <c r="C119">
+        <v>778</v>
+      </c>
+      <c r="D119">
+        <v>114</v>
+      </c>
+      <c r="E119">
+        <v>139</v>
+      </c>
+      <c r="F119">
+        <v>0.85347043700000003</v>
+      </c>
+      <c r="G119">
+        <v>0.82133676089999996</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>40</v>
+      </c>
+      <c r="B120">
+        <v>432</v>
+      </c>
+      <c r="C120">
+        <v>432</v>
+      </c>
+      <c r="D120">
+        <v>25</v>
+      </c>
+      <c r="E120">
+        <v>116</v>
+      </c>
+      <c r="F120">
+        <v>0.94212962960000002</v>
+      </c>
+      <c r="G120">
+        <v>0.73148148150000003</v>
+      </c>
+      <c r="I120" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121">
+        <v>1840</v>
+      </c>
+      <c r="C121">
+        <v>1840</v>
+      </c>
+      <c r="D121">
+        <v>366</v>
+      </c>
+      <c r="E121">
+        <v>211</v>
+      </c>
+      <c r="F121">
+        <v>0.80108695649999995</v>
+      </c>
+      <c r="G121">
+        <v>0.88532608700000004</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>41</v>
+      </c>
+      <c r="B122">
+        <v>2836</v>
+      </c>
+      <c r="C122">
+        <v>2836</v>
+      </c>
+      <c r="D122">
+        <v>277</v>
+      </c>
+      <c r="E122">
+        <v>484</v>
+      </c>
+      <c r="F122">
+        <v>0.90232722139999999</v>
+      </c>
+      <c r="G122">
+        <v>0.82933709450000004</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>42</v>
+      </c>
+      <c r="B123">
+        <v>3440</v>
+      </c>
+      <c r="C123">
+        <v>3440</v>
+      </c>
+      <c r="D123">
+        <v>291</v>
+      </c>
+      <c r="E123">
+        <v>378</v>
+      </c>
+      <c r="F123">
+        <v>0.91540697670000004</v>
+      </c>
+      <c r="G123">
+        <v>0.89011627910000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124">
+        <v>3432</v>
+      </c>
+      <c r="C124">
+        <v>3432</v>
+      </c>
+      <c r="D124">
+        <v>249</v>
+      </c>
+      <c r="E124">
+        <v>370</v>
+      </c>
+      <c r="F124">
+        <v>0.92744755239999999</v>
+      </c>
+      <c r="G124">
+        <v>0.89219114219999995</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>43</v>
+      </c>
+      <c r="B125">
+        <v>788</v>
+      </c>
+      <c r="C125">
+        <v>788</v>
+      </c>
+      <c r="D125">
+        <v>55</v>
+      </c>
+      <c r="E125">
+        <v>267</v>
+      </c>
+      <c r="F125">
+        <v>0.93020304570000001</v>
+      </c>
+      <c r="G125">
+        <v>0.66116751269999996</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>44</v>
+      </c>
+      <c r="B126">
+        <v>7980</v>
+      </c>
+      <c r="C126">
+        <v>7980</v>
+      </c>
+      <c r="D126">
+        <v>524</v>
+      </c>
+      <c r="E126">
+        <v>943</v>
+      </c>
+      <c r="F126">
+        <v>0.9343358396</v>
+      </c>
+      <c r="G126">
+        <v>0.88182957399999995</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>45</v>
+      </c>
+      <c r="B127">
+        <v>5580</v>
+      </c>
+      <c r="C127">
+        <v>5580</v>
+      </c>
+      <c r="D127">
+        <v>326</v>
+      </c>
+      <c r="E127">
+        <v>408</v>
+      </c>
+      <c r="F127">
+        <v>0.94157706100000005</v>
+      </c>
+      <c r="G127">
+        <v>0.92688172040000005</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>48</v>
+      </c>
+      <c r="B128">
+        <f>SUM(B117:B127)</f>
+        <v>29246</v>
+      </c>
+      <c r="C128">
+        <f>SUM(C117:C127)</f>
+        <v>29246</v>
+      </c>
+      <c r="D128">
+        <f>SUM(D117:D127)</f>
+        <v>2487</v>
+      </c>
+      <c r="E128">
+        <f>SUM(E117:E127)</f>
+        <v>3633</v>
+      </c>
+      <c r="F128">
+        <f>(B128-D128)/B128</f>
+        <v>0.91496272994597549</v>
+      </c>
+      <c r="G128">
+        <f>(C128-E128)/C128</f>
+        <v>0.87577788415509816</v>
+      </c>
+    </row>
+    <row r="133" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F133" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="134" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E134" t="s">
+        <v>52</v>
+      </c>
+      <c r="F134" s="11">
+        <v>0.90918437285812204</v>
+      </c>
+      <c r="G134" s="11">
+        <v>0.88519533927347493</v>
+      </c>
+    </row>
+    <row r="135" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E135" t="s">
+        <v>52</v>
+      </c>
+      <c r="F135" s="11">
+        <v>0.90952707333790273</v>
+      </c>
+      <c r="G135" s="11">
+        <v>0.87183002056202874</v>
+      </c>
+    </row>
+    <row r="136" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E136" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F136" s="11">
+        <v>0.91496272994597549</v>
+      </c>
+      <c r="G136" s="11">
+        <v>0.87577788415509816</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1</v>
+      </c>
+      <c r="B157">
+        <v>79.62</v>
+      </c>
+      <c r="C157">
+        <v>40.19</v>
+      </c>
+      <c r="D157">
+        <v>59.94</v>
+      </c>
+      <c r="E157">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>2</v>
+      </c>
+      <c r="B158">
+        <v>80.89</v>
+      </c>
+      <c r="C158">
+        <v>40.19</v>
+      </c>
+      <c r="D158">
+        <v>60.57</v>
+      </c>
+      <c r="E158">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>3</v>
+      </c>
+      <c r="B159">
+        <v>78.77</v>
+      </c>
+      <c r="C159">
+        <v>41.27</v>
+      </c>
+      <c r="D159">
+        <v>60.03</v>
+      </c>
+      <c r="E159">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>4</v>
+      </c>
+      <c r="B160">
+        <v>79.55</v>
+      </c>
+      <c r="C160">
+        <v>38.909999999999997</v>
+      </c>
+      <c r="D160">
+        <v>59.23</v>
+      </c>
+      <c r="E160">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>5</v>
+      </c>
+      <c r="B161">
+        <v>79.87</v>
+      </c>
+      <c r="C161">
+        <v>40.64</v>
+      </c>
+      <c r="D161">
+        <v>60.26</v>
+      </c>
+      <c r="E161">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>6</v>
+      </c>
+      <c r="B162">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="C162">
+        <v>40.19</v>
+      </c>
+      <c r="D162">
+        <v>59.65</v>
+      </c>
+      <c r="E162">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>7</v>
+      </c>
+      <c r="B163">
+        <v>78.33</v>
+      </c>
+      <c r="C163">
+        <v>40.47</v>
+      </c>
+      <c r="D163">
+        <v>59.41</v>
+      </c>
+      <c r="E163">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>61</v>
+      </c>
+      <c r="B164">
+        <f>AVERAGE(B157:B163)</f>
+        <v>79.44714285714285</v>
+      </c>
+      <c r="C164">
+        <f>AVERAGE(C157:C163)</f>
+        <v>40.265714285714289</v>
+      </c>
+      <c r="D164">
+        <f>AVERAGE(D157:D163)</f>
+        <v>59.86999999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>1</v>
+      </c>
+      <c r="B173">
+        <v>77.819999999999993</v>
+      </c>
+      <c r="C173">
+        <v>71.36</v>
+      </c>
+      <c r="D173">
+        <v>74.59</v>
+      </c>
+      <c r="E173">
+        <v>3117</v>
+      </c>
+      <c r="H173" t="s">
+        <v>65</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K173" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>2</v>
+      </c>
+      <c r="B174">
+        <v>78.91</v>
+      </c>
+      <c r="C174">
+        <v>72.55</v>
+      </c>
+      <c r="D174">
+        <v>75.73</v>
+      </c>
+      <c r="E174">
+        <v>3119</v>
+      </c>
+      <c r="H174" t="s">
+        <v>60</v>
+      </c>
+      <c r="I174">
+        <v>79.44714285714285</v>
+      </c>
+      <c r="J174">
+        <v>40.265714285714289</v>
+      </c>
+      <c r="K174">
+        <v>59.86999999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H175" t="s">
+        <v>62</v>
+      </c>
+      <c r="I175">
+        <v>78.91</v>
+      </c>
+      <c r="J175">
+        <v>72.55</v>
+      </c>
+      <c r="K175">
+        <v>75.73</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H176" t="s">
+        <v>63</v>
+      </c>
+      <c r="I176">
+        <v>55.9</v>
+      </c>
+      <c r="J176">
+        <v>87.57</v>
+      </c>
+      <c r="K176">
+        <v>71.7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>1</v>
+      </c>
+      <c r="B180">
+        <v>56.08</v>
+      </c>
+      <c r="C180">
+        <v>86.67</v>
+      </c>
+      <c r="D180">
+        <v>71.36</v>
+      </c>
+      <c r="E180">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>2</v>
+      </c>
+      <c r="B181">
+        <v>55.9</v>
+      </c>
+      <c r="C181">
+        <v>87.57</v>
+      </c>
+      <c r="D181">
+        <v>71.7</v>
+      </c>
+      <c r="E181">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="I174:K176">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>